--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Cd2</t>
   </si>
   <si>
     <t>Cd48</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.891606320813825</v>
+        <v>0.3942186666666667</v>
       </c>
       <c r="H2">
-        <v>0.891606320813825</v>
+        <v>1.182656</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>97.700196038222</v>
+        <v>0.04476233333333333</v>
       </c>
       <c r="N2">
-        <v>97.700196038222</v>
+        <v>0.134287</v>
       </c>
       <c r="O2">
-        <v>0.3698113437746262</v>
+        <v>0.0001606100819297279</v>
       </c>
       <c r="P2">
-        <v>0.3698113437746262</v>
+        <v>0.0001606100819297279</v>
       </c>
       <c r="Q2">
-        <v>87.11011233242856</v>
+        <v>0.01764614736355555</v>
       </c>
       <c r="R2">
-        <v>87.11011233242856</v>
+        <v>0.158815326272</v>
       </c>
       <c r="S2">
-        <v>0.3698113437746262</v>
+        <v>4.28933427607892E-05</v>
       </c>
       <c r="T2">
-        <v>0.3698113437746262</v>
+        <v>4.28933427607892E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.891606320813825</v>
+        <v>0.3942186666666667</v>
       </c>
       <c r="H3">
-        <v>0.891606320813825</v>
+        <v>1.182656</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>132.140094732339</v>
+        <v>109.277106</v>
       </c>
       <c r="N3">
-        <v>132.140094732339</v>
+        <v>327.831318</v>
       </c>
       <c r="O3">
-        <v>0.5001720363012896</v>
+        <v>0.3920931649609471</v>
       </c>
       <c r="P3">
-        <v>0.5001720363012896</v>
+        <v>0.392093164960947</v>
       </c>
       <c r="Q3">
-        <v>117.8169436962911</v>
+        <v>43.079075024512</v>
       </c>
       <c r="R3">
-        <v>117.8169436962911</v>
+        <v>387.711675220608</v>
       </c>
       <c r="S3">
-        <v>0.5001720363012896</v>
+        <v>0.1047143885163514</v>
       </c>
       <c r="T3">
-        <v>0.5001720363012896</v>
+        <v>0.1047143885163514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.182656</v>
+      </c>
+      <c r="I4">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="J4">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>134.50441</v>
+      </c>
+      <c r="N4">
+        <v>403.51323</v>
+      </c>
+      <c r="O4">
+        <v>0.4826103266141113</v>
+      </c>
+      <c r="P4">
+        <v>0.4826103266141112</v>
+      </c>
+      <c r="Q4">
+        <v>53.02414917098667</v>
+      </c>
+      <c r="R4">
+        <v>477.21734253888</v>
+      </c>
+      <c r="S4">
+        <v>0.1288883606224219</v>
+      </c>
+      <c r="T4">
+        <v>0.1288883606224219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.182656</v>
+      </c>
+      <c r="I5">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="J5">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>34.77324366666667</v>
+      </c>
+      <c r="N5">
+        <v>104.319731</v>
+      </c>
+      <c r="O5">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="P5">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="Q5">
+        <v>13.70826175394844</v>
+      </c>
+      <c r="R5">
+        <v>123.374355785536</v>
+      </c>
+      <c r="S5">
+        <v>0.03332133399730672</v>
+      </c>
+      <c r="T5">
+        <v>0.03332133399730672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.891606320813825</v>
-      </c>
-      <c r="H4">
-        <v>0.891606320813825</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>34.3489983978193</v>
-      </c>
-      <c r="N4">
-        <v>34.3489983978193</v>
-      </c>
-      <c r="O4">
-        <v>0.1300166199240843</v>
-      </c>
-      <c r="P4">
-        <v>0.1300166199240843</v>
-      </c>
-      <c r="Q4">
-        <v>30.62578408511963</v>
-      </c>
-      <c r="R4">
-        <v>30.62578408511963</v>
-      </c>
-      <c r="S4">
-        <v>0.1300166199240843</v>
-      </c>
-      <c r="T4">
-        <v>0.1300166199240843</v>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.182656</v>
+      </c>
+      <c r="I6">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="J6">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1023676666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.307103</v>
+      </c>
+      <c r="O6">
+        <v>0.0003673016598097005</v>
+      </c>
+      <c r="P6">
+        <v>0.0003673016598097004</v>
+      </c>
+      <c r="Q6">
+        <v>0.04035524506311111</v>
+      </c>
+      <c r="R6">
+        <v>0.363197205568</v>
+      </c>
+      <c r="S6">
+        <v>9.809344345965468E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.809344345965467E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.058808</v>
+      </c>
+      <c r="I7">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="J7">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.04476233333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.134287</v>
+      </c>
+      <c r="O7">
+        <v>0.0001606100819297279</v>
+      </c>
+      <c r="P7">
+        <v>0.0001606100819297279</v>
+      </c>
+      <c r="Q7">
+        <v>0.04563979443288888</v>
+      </c>
+      <c r="R7">
+        <v>0.410758149896</v>
+      </c>
+      <c r="S7">
+        <v>0.0001109388528730621</v>
+      </c>
+      <c r="T7">
+        <v>0.0001109388528730621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.058808</v>
+      </c>
+      <c r="I8">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="J8">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>109.277106</v>
+      </c>
+      <c r="N8">
+        <v>327.831318</v>
+      </c>
+      <c r="O8">
+        <v>0.3920931649609471</v>
+      </c>
+      <c r="P8">
+        <v>0.392093164960947</v>
+      </c>
+      <c r="Q8">
+        <v>111.419228683216</v>
+      </c>
+      <c r="R8">
+        <v>1002.773058148944</v>
+      </c>
+      <c r="S8">
+        <v>0.2708321010580625</v>
+      </c>
+      <c r="T8">
+        <v>0.2708321010580624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.058808</v>
+      </c>
+      <c r="I9">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="J9">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>134.50441</v>
+      </c>
+      <c r="N9">
+        <v>403.51323</v>
+      </c>
+      <c r="O9">
+        <v>0.4826103266141113</v>
+      </c>
+      <c r="P9">
+        <v>0.4826103266141112</v>
+      </c>
+      <c r="Q9">
+        <v>137.1410551144267</v>
+      </c>
+      <c r="R9">
+        <v>1234.26949602984</v>
+      </c>
+      <c r="S9">
+        <v>0.3333553870091972</v>
+      </c>
+      <c r="T9">
+        <v>0.3333553870091972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.058808</v>
+      </c>
+      <c r="I10">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="J10">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.77324366666667</v>
+      </c>
+      <c r="N10">
+        <v>104.319731</v>
+      </c>
+      <c r="O10">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="P10">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="Q10">
+        <v>35.45489197118311</v>
+      </c>
+      <c r="R10">
+        <v>319.094027740648</v>
+      </c>
+      <c r="S10">
+        <v>0.08618191849670045</v>
+      </c>
+      <c r="T10">
+        <v>0.08618191849670045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.058808</v>
+      </c>
+      <c r="I11">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="J11">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1023676666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.307103</v>
+      </c>
+      <c r="O11">
+        <v>0.0003673016598097005</v>
+      </c>
+      <c r="P11">
+        <v>0.0003673016598097004</v>
+      </c>
+      <c r="Q11">
+        <v>0.1043743459137778</v>
+      </c>
+      <c r="R11">
+        <v>0.9393691132240001</v>
+      </c>
+      <c r="S11">
+        <v>0.0002537077642204829</v>
+      </c>
+      <c r="T11">
+        <v>0.0002537077642204829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.18688</v>
+      </c>
+      <c r="I12">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="J12">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04476233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.134287</v>
+      </c>
+      <c r="O12">
+        <v>0.0001606100819297279</v>
+      </c>
+      <c r="P12">
+        <v>0.0001606100819297279</v>
+      </c>
+      <c r="Q12">
+        <v>0.002788394951111111</v>
+      </c>
+      <c r="R12">
+        <v>0.02509555456</v>
+      </c>
+      <c r="S12">
+        <v>6.777886295876643E-06</v>
+      </c>
+      <c r="T12">
+        <v>6.777886295876643E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.18688</v>
+      </c>
+      <c r="I13">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="J13">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>109.277106</v>
+      </c>
+      <c r="N13">
+        <v>327.831318</v>
+      </c>
+      <c r="O13">
+        <v>0.3920931649609471</v>
+      </c>
+      <c r="P13">
+        <v>0.392093164960947</v>
+      </c>
+      <c r="Q13">
+        <v>6.80723518976</v>
+      </c>
+      <c r="R13">
+        <v>61.26511670784</v>
+      </c>
+      <c r="S13">
+        <v>0.01654667538653316</v>
+      </c>
+      <c r="T13">
+        <v>0.01654667538653315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.18688</v>
+      </c>
+      <c r="I14">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="J14">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>134.50441</v>
+      </c>
+      <c r="N14">
+        <v>403.51323</v>
+      </c>
+      <c r="O14">
+        <v>0.4826103266141113</v>
+      </c>
+      <c r="P14">
+        <v>0.4826103266141112</v>
+      </c>
+      <c r="Q14">
+        <v>8.378728046933334</v>
+      </c>
+      <c r="R14">
+        <v>75.40855242240001</v>
+      </c>
+      <c r="S14">
+        <v>0.02036657898249213</v>
+      </c>
+      <c r="T14">
+        <v>0.02036657898249212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.18688</v>
+      </c>
+      <c r="I15">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="J15">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.77324366666667</v>
+      </c>
+      <c r="N15">
+        <v>104.319731</v>
+      </c>
+      <c r="O15">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="P15">
+        <v>0.1247685966832023</v>
+      </c>
+      <c r="Q15">
+        <v>2.166141258808889</v>
+      </c>
+      <c r="R15">
+        <v>19.49527132928</v>
+      </c>
+      <c r="S15">
+        <v>0.005265344189195067</v>
+      </c>
+      <c r="T15">
+        <v>0.005265344189195066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.18688</v>
+      </c>
+      <c r="I16">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="J16">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1023676666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.307103</v>
+      </c>
+      <c r="O16">
+        <v>0.0003673016598097005</v>
+      </c>
+      <c r="P16">
+        <v>0.0003673016598097004</v>
+      </c>
+      <c r="Q16">
+        <v>0.006376823182222223</v>
+      </c>
+      <c r="R16">
+        <v>0.05739140864</v>
+      </c>
+      <c r="S16">
+        <v>1.550045212956284E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.550045212956283E-05</v>
       </c>
     </row>
   </sheetData>
